--- a/Mifos Automation Excels/Client/2574-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2574-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-CASH-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -187,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,26 +417,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,23 +452,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -828,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -1501,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
